--- a/Data/all_in_one_Categorical_imputed.xlsx
+++ b/Data/all_in_one_Categorical_imputed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stray\Desktop\year3\ADS\cw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD90CD-8E82-4080-B98E-C3AF52BA356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA037F-35CD-428F-A619-B1017046CE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
   <si>
     <t>Total_owed_a_prevention_or_relief_duty</t>
   </si>
@@ -40,1609 +40,1623 @@
     <t>Total_secured_accommodation</t>
   </si>
   <si>
-    <t>Homeless(including_intentionally_homeless)</t>
-  </si>
-  <si>
     <t>Size_of_social_housing_waiting_list_2021</t>
   </si>
   <si>
     <t>2021_Total_Lettings</t>
   </si>
   <si>
-    <t>Affordable Rent_(Starts_on_Site)</t>
-  </si>
-  <si>
     <t>Social_Rent_(Starts_on_Site)</t>
   </si>
   <si>
+    <t>Total_Affordable(Starts_on_Site)</t>
+  </si>
+  <si>
+    <t>Social_Rent(Completions)</t>
+  </si>
+  <si>
+    <t>Total_Affordable(Completions)</t>
+  </si>
+  <si>
+    <t>Total(Starts_on_Site)</t>
+  </si>
+  <si>
+    <t>Total(Completions)</t>
+  </si>
+  <si>
+    <t>A_B_property_counts</t>
+  </si>
+  <si>
+    <t>C_D_property_counts</t>
+  </si>
+  <si>
+    <t>E_F_property_counts</t>
+  </si>
+  <si>
+    <t>G_H_property_counts</t>
+  </si>
+  <si>
+    <t>median_houses_2020</t>
+  </si>
+  <si>
+    <t>median_earning_2020</t>
+  </si>
+  <si>
+    <t>ratio_by_medians_2020</t>
+  </si>
+  <si>
+    <t>lower_quatile_houses_2020</t>
+  </si>
+  <si>
+    <t>lower_quatile_earning_2020</t>
+  </si>
+  <si>
+    <t>ratio_by_lower_quatile_2020</t>
+  </si>
+  <si>
+    <t>Local_Authority_code</t>
+  </si>
+  <si>
+    <t>E06000002</t>
+  </si>
+  <si>
+    <t>E06000003</t>
+  </si>
+  <si>
+    <t>E06000004</t>
+  </si>
+  <si>
+    <t>E06000005</t>
+  </si>
+  <si>
+    <t>E06000007</t>
+  </si>
+  <si>
+    <t>E06000008</t>
+  </si>
+  <si>
+    <t>E06000009</t>
+  </si>
+  <si>
+    <t>E06000010</t>
+  </si>
+  <si>
+    <t>E06000011</t>
+  </si>
+  <si>
+    <t>E06000012</t>
+  </si>
+  <si>
+    <t>E06000014</t>
+  </si>
+  <si>
+    <t>E06000015</t>
+  </si>
+  <si>
+    <t>E06000016</t>
+  </si>
+  <si>
+    <t>E06000017</t>
+  </si>
+  <si>
+    <t>E06000018</t>
+  </si>
+  <si>
+    <t>E06000019</t>
+  </si>
+  <si>
+    <t>E06000020</t>
+  </si>
+  <si>
+    <t>E06000021</t>
+  </si>
+  <si>
+    <t>E06000022</t>
+  </si>
+  <si>
+    <t>E06000023</t>
+  </si>
+  <si>
+    <t>E06000024</t>
+  </si>
+  <si>
+    <t>E06000025</t>
+  </si>
+  <si>
+    <t>E06000026</t>
+  </si>
+  <si>
+    <t>E06000027</t>
+  </si>
+  <si>
+    <t>E06000029</t>
+  </si>
+  <si>
+    <t>E06000030</t>
+  </si>
+  <si>
+    <t>E06000031</t>
+  </si>
+  <si>
+    <t>E06000032</t>
+  </si>
+  <si>
+    <t>E06000033</t>
+  </si>
+  <si>
+    <t>E06000034</t>
+  </si>
+  <si>
+    <t>E06000035</t>
+  </si>
+  <si>
+    <t>E06000036</t>
+  </si>
+  <si>
+    <t>E06000037</t>
+  </si>
+  <si>
+    <t>E06000038</t>
+  </si>
+  <si>
+    <t>E06000040</t>
+  </si>
+  <si>
+    <t>E06000041</t>
+  </si>
+  <si>
+    <t>E06000042</t>
+  </si>
+  <si>
+    <t>E06000044</t>
+  </si>
+  <si>
+    <t>E06000045</t>
+  </si>
+  <si>
+    <t>E06000046</t>
+  </si>
+  <si>
+    <t>E06000047</t>
+  </si>
+  <si>
+    <t>E06000049</t>
+  </si>
+  <si>
+    <t>E06000050</t>
+  </si>
+  <si>
+    <t>E06000051</t>
+  </si>
+  <si>
+    <t>E06000052</t>
+  </si>
+  <si>
+    <t>E06000054</t>
+  </si>
+  <si>
+    <t>E06000055</t>
+  </si>
+  <si>
+    <t>E06000056</t>
+  </si>
+  <si>
+    <t>E06000057</t>
+  </si>
+  <si>
+    <t>E07000008</t>
+  </si>
+  <si>
+    <t>E07000010</t>
+  </si>
+  <si>
+    <t>E07000011</t>
+  </si>
+  <si>
+    <t>E07000012</t>
+  </si>
+  <si>
+    <t>E07000028</t>
+  </si>
+  <si>
+    <t>E07000029</t>
+  </si>
+  <si>
+    <t>E07000030</t>
+  </si>
+  <si>
+    <t>E07000031</t>
+  </si>
+  <si>
+    <t>E07000032</t>
+  </si>
+  <si>
+    <t>E07000033</t>
+  </si>
+  <si>
+    <t>E07000034</t>
+  </si>
+  <si>
+    <t>E07000035</t>
+  </si>
+  <si>
+    <t>E07000036</t>
+  </si>
+  <si>
+    <t>E07000037</t>
+  </si>
+  <si>
+    <t>E07000038</t>
+  </si>
+  <si>
+    <t>E07000039</t>
+  </si>
+  <si>
+    <t>E07000040</t>
+  </si>
+  <si>
+    <t>E07000042</t>
+  </si>
+  <si>
+    <t>E07000043</t>
+  </si>
+  <si>
+    <t>E07000044</t>
+  </si>
+  <si>
+    <t>E07000045</t>
+  </si>
+  <si>
+    <t>E07000046</t>
+  </si>
+  <si>
+    <t>E07000047</t>
+  </si>
+  <si>
+    <t>E07000062</t>
+  </si>
+  <si>
+    <t>E07000065</t>
+  </si>
+  <si>
+    <t>E07000066</t>
+  </si>
+  <si>
+    <t>E07000067</t>
+  </si>
+  <si>
+    <t>E07000070</t>
+  </si>
+  <si>
+    <t>E07000071</t>
+  </si>
+  <si>
+    <t>E07000072</t>
+  </si>
+  <si>
+    <t>E07000073</t>
+  </si>
+  <si>
+    <t>E07000074</t>
+  </si>
+  <si>
+    <t>E07000075</t>
+  </si>
+  <si>
+    <t>E07000076</t>
+  </si>
+  <si>
+    <t>E07000077</t>
+  </si>
+  <si>
+    <t>E07000078</t>
+  </si>
+  <si>
+    <t>E07000079</t>
+  </si>
+  <si>
+    <t>E07000080</t>
+  </si>
+  <si>
+    <t>E07000081</t>
+  </si>
+  <si>
+    <t>E07000083</t>
+  </si>
+  <si>
+    <t>E07000084</t>
+  </si>
+  <si>
+    <t>E07000085</t>
+  </si>
+  <si>
+    <t>E07000086</t>
+  </si>
+  <si>
+    <t>E07000087</t>
+  </si>
+  <si>
+    <t>E07000088</t>
+  </si>
+  <si>
+    <t>E07000089</t>
+  </si>
+  <si>
+    <t>E07000090</t>
+  </si>
+  <si>
+    <t>E07000091</t>
+  </si>
+  <si>
+    <t>E07000092</t>
+  </si>
+  <si>
+    <t>E07000093</t>
+  </si>
+  <si>
+    <t>E07000094</t>
+  </si>
+  <si>
+    <t>E07000095</t>
+  </si>
+  <si>
+    <t>E07000096</t>
+  </si>
+  <si>
+    <t>E07000098</t>
+  </si>
+  <si>
+    <t>E07000099</t>
+  </si>
+  <si>
+    <t>E07000102</t>
+  </si>
+  <si>
+    <t>E07000103</t>
+  </si>
+  <si>
+    <t>E07000105</t>
+  </si>
+  <si>
+    <t>E07000106</t>
+  </si>
+  <si>
+    <t>E07000108</t>
+  </si>
+  <si>
+    <t>E07000109</t>
+  </si>
+  <si>
+    <t>E07000110</t>
+  </si>
+  <si>
+    <t>E07000111</t>
+  </si>
+  <si>
+    <t>E07000112</t>
+  </si>
+  <si>
+    <t>E07000113</t>
+  </si>
+  <si>
+    <t>E07000114</t>
+  </si>
+  <si>
+    <t>E07000115</t>
+  </si>
+  <si>
+    <t>E07000117</t>
+  </si>
+  <si>
+    <t>E07000118</t>
+  </si>
+  <si>
+    <t>E07000119</t>
+  </si>
+  <si>
+    <t>E07000120</t>
+  </si>
+  <si>
+    <t>E07000122</t>
+  </si>
+  <si>
+    <t>E07000124</t>
+  </si>
+  <si>
+    <t>E07000125</t>
+  </si>
+  <si>
+    <t>E07000126</t>
+  </si>
+  <si>
+    <t>E07000127</t>
+  </si>
+  <si>
+    <t>E07000128</t>
+  </si>
+  <si>
+    <t>E07000129</t>
+  </si>
+  <si>
+    <t>E07000131</t>
+  </si>
+  <si>
+    <t>E07000132</t>
+  </si>
+  <si>
+    <t>E07000134</t>
+  </si>
+  <si>
+    <t>E07000135</t>
+  </si>
+  <si>
+    <t>E07000136</t>
+  </si>
+  <si>
+    <t>E07000138</t>
+  </si>
+  <si>
+    <t>E07000139</t>
+  </si>
+  <si>
+    <t>E07000140</t>
+  </si>
+  <si>
+    <t>E07000141</t>
+  </si>
+  <si>
+    <t>E07000142</t>
+  </si>
+  <si>
+    <t>E07000143</t>
+  </si>
+  <si>
+    <t>E07000144</t>
+  </si>
+  <si>
+    <t>E07000145</t>
+  </si>
+  <si>
+    <t>E07000146</t>
+  </si>
+  <si>
+    <t>E07000147</t>
+  </si>
+  <si>
+    <t>E07000148</t>
+  </si>
+  <si>
+    <t>E07000149</t>
+  </si>
+  <si>
+    <t>E07000150</t>
+  </si>
+  <si>
+    <t>E07000151</t>
+  </si>
+  <si>
+    <t>E07000152</t>
+  </si>
+  <si>
+    <t>E07000153</t>
+  </si>
+  <si>
+    <t>E07000154</t>
+  </si>
+  <si>
+    <t>E07000155</t>
+  </si>
+  <si>
+    <t>E07000156</t>
+  </si>
+  <si>
+    <t>E07000163</t>
+  </si>
+  <si>
+    <t>E07000167</t>
+  </si>
+  <si>
+    <t>E07000168</t>
+  </si>
+  <si>
+    <t>E07000169</t>
+  </si>
+  <si>
+    <t>E07000170</t>
+  </si>
+  <si>
+    <t>E07000171</t>
+  </si>
+  <si>
+    <t>E07000172</t>
+  </si>
+  <si>
+    <t>E07000173</t>
+  </si>
+  <si>
+    <t>E07000174</t>
+  </si>
+  <si>
+    <t>E07000176</t>
+  </si>
+  <si>
+    <t>E07000177</t>
+  </si>
+  <si>
+    <t>E07000178</t>
+  </si>
+  <si>
+    <t>E07000179</t>
+  </si>
+  <si>
+    <t>E07000180</t>
+  </si>
+  <si>
+    <t>E07000181</t>
+  </si>
+  <si>
+    <t>E07000187</t>
+  </si>
+  <si>
+    <t>E07000188</t>
+  </si>
+  <si>
+    <t>E07000189</t>
+  </si>
+  <si>
+    <t>E07000192</t>
+  </si>
+  <si>
+    <t>E07000193</t>
+  </si>
+  <si>
+    <t>E07000194</t>
+  </si>
+  <si>
+    <t>E07000195</t>
+  </si>
+  <si>
+    <t>E07000196</t>
+  </si>
+  <si>
+    <t>E07000197</t>
+  </si>
+  <si>
+    <t>E07000198</t>
+  </si>
+  <si>
+    <t>E07000199</t>
+  </si>
+  <si>
+    <t>E07000200</t>
+  </si>
+  <si>
+    <t>E07000202</t>
+  </si>
+  <si>
+    <t>E07000203</t>
+  </si>
+  <si>
+    <t>E07000207</t>
+  </si>
+  <si>
+    <t>E07000208</t>
+  </si>
+  <si>
+    <t>E07000209</t>
+  </si>
+  <si>
+    <t>E07000210</t>
+  </si>
+  <si>
+    <t>E07000211</t>
+  </si>
+  <si>
+    <t>E07000212</t>
+  </si>
+  <si>
+    <t>E07000213</t>
+  </si>
+  <si>
+    <t>E07000214</t>
+  </si>
+  <si>
+    <t>E07000215</t>
+  </si>
+  <si>
+    <t>E07000216</t>
+  </si>
+  <si>
+    <t>E07000218</t>
+  </si>
+  <si>
+    <t>E07000219</t>
+  </si>
+  <si>
+    <t>E07000220</t>
+  </si>
+  <si>
+    <t>E07000221</t>
+  </si>
+  <si>
+    <t>E07000222</t>
+  </si>
+  <si>
+    <t>E07000223</t>
+  </si>
+  <si>
+    <t>E07000224</t>
+  </si>
+  <si>
+    <t>E07000226</t>
+  </si>
+  <si>
+    <t>E07000227</t>
+  </si>
+  <si>
+    <t>E07000228</t>
+  </si>
+  <si>
+    <t>E07000229</t>
+  </si>
+  <si>
+    <t>E07000234</t>
+  </si>
+  <si>
+    <t>E07000235</t>
+  </si>
+  <si>
+    <t>E07000236</t>
+  </si>
+  <si>
+    <t>E07000237</t>
+  </si>
+  <si>
+    <t>E07000238</t>
+  </si>
+  <si>
+    <t>E07000239</t>
+  </si>
+  <si>
+    <t>E07000240</t>
+  </si>
+  <si>
+    <t>E07000241</t>
+  </si>
+  <si>
+    <t>E07000242</t>
+  </si>
+  <si>
+    <t>E08000001</t>
+  </si>
+  <si>
+    <t>E08000002</t>
+  </si>
+  <si>
+    <t>E08000003</t>
+  </si>
+  <si>
+    <t>E08000004</t>
+  </si>
+  <si>
+    <t>E08000005</t>
+  </si>
+  <si>
+    <t>E08000006</t>
+  </si>
+  <si>
+    <t>E08000007</t>
+  </si>
+  <si>
+    <t>E08000008</t>
+  </si>
+  <si>
+    <t>E08000009</t>
+  </si>
+  <si>
+    <t>E08000010</t>
+  </si>
+  <si>
+    <t>E08000011</t>
+  </si>
+  <si>
+    <t>E08000012</t>
+  </si>
+  <si>
+    <t>E08000013</t>
+  </si>
+  <si>
+    <t>E08000014</t>
+  </si>
+  <si>
+    <t>E08000015</t>
+  </si>
+  <si>
+    <t>E08000016</t>
+  </si>
+  <si>
+    <t>E08000017</t>
+  </si>
+  <si>
+    <t>E08000018</t>
+  </si>
+  <si>
+    <t>E08000019</t>
+  </si>
+  <si>
+    <t>E08000021</t>
+  </si>
+  <si>
+    <t>E08000022</t>
+  </si>
+  <si>
+    <t>E08000024</t>
+  </si>
+  <si>
+    <t>E08000025</t>
+  </si>
+  <si>
+    <t>E08000026</t>
+  </si>
+  <si>
+    <t>E08000027</t>
+  </si>
+  <si>
+    <t>E08000028</t>
+  </si>
+  <si>
+    <t>E08000029</t>
+  </si>
+  <si>
+    <t>E08000030</t>
+  </si>
+  <si>
+    <t>E08000031</t>
+  </si>
+  <si>
+    <t>E08000032</t>
+  </si>
+  <si>
+    <t>E08000033</t>
+  </si>
+  <si>
+    <t>E08000034</t>
+  </si>
+  <si>
+    <t>E08000035</t>
+  </si>
+  <si>
+    <t>E08000036</t>
+  </si>
+  <si>
+    <t>E08000037</t>
+  </si>
+  <si>
+    <t>E09000002</t>
+  </si>
+  <si>
+    <t>E09000004</t>
+  </si>
+  <si>
+    <t>E09000005</t>
+  </si>
+  <si>
+    <t>E09000014</t>
+  </si>
+  <si>
+    <t>E09000021</t>
+  </si>
+  <si>
+    <t>E09000024</t>
+  </si>
+  <si>
+    <t>E09000030</t>
+  </si>
+  <si>
+    <t>E09000031</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Redcar Cleveland</t>
+  </si>
+  <si>
+    <t>Stockton-on-Tees</t>
+  </si>
+  <si>
+    <t>Darlington</t>
+  </si>
+  <si>
+    <t>Warrington</t>
+  </si>
+  <si>
+    <t>Blackburn with Darwen</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Kingston upon Hull</t>
+  </si>
+  <si>
+    <t>East Riding of Yorkshire</t>
+  </si>
+  <si>
+    <t>North East Lincolnshire</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Rutland</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Herefordshire, County of</t>
+  </si>
+  <si>
+    <t>Telford Wrekin</t>
+  </si>
+  <si>
+    <t>Stoke-on-Trent</t>
+  </si>
+  <si>
+    <t>Bath North East Somerset</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>North Somerset</t>
+  </si>
+  <si>
+    <t>South Gloucestershire</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Torbay</t>
+  </si>
+  <si>
+    <t>Poole</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Southend-on-Sea</t>
+  </si>
+  <si>
+    <t>Thurrock</t>
+  </si>
+  <si>
+    <t>Medway</t>
+  </si>
+  <si>
+    <t>Bracknell Forest</t>
+  </si>
+  <si>
+    <t>West Berkshire</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Windsor Maidenhead</t>
+  </si>
+  <si>
+    <t>Wokingham</t>
+  </si>
+  <si>
+    <t>Milton Keynes</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>County Durham</t>
+  </si>
+  <si>
+    <t>Cheshire East</t>
+  </si>
+  <si>
+    <t>Cheshire West Chester</t>
+  </si>
+  <si>
+    <t>Shropshire</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Wiltshire</t>
+  </si>
+  <si>
+    <t>Bedford</t>
+  </si>
+  <si>
+    <t>Central Bedfordshire</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Fenland</t>
+  </si>
+  <si>
+    <t>Huntingdonshire</t>
+  </si>
+  <si>
+    <t>South Cambridgeshire</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Copeland</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>South Lakeland</t>
+  </si>
+  <si>
+    <t>Amber Valley</t>
+  </si>
+  <si>
+    <t>Bolsover</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Derbyshire Dales</t>
+  </si>
+  <si>
+    <t>Erewash</t>
+  </si>
+  <si>
+    <t>High Peak</t>
+  </si>
+  <si>
+    <t>North East Derbyshire</t>
+  </si>
+  <si>
+    <t>South Derbyshire</t>
+  </si>
+  <si>
+    <t>East Devon</t>
+  </si>
+  <si>
+    <t>Mid Devon</t>
+  </si>
+  <si>
+    <t>North Devon</t>
+  </si>
+  <si>
+    <t>South Hams</t>
+  </si>
+  <si>
+    <t>Teignbridge</t>
+  </si>
+  <si>
+    <t>Torridge</t>
+  </si>
+  <si>
+    <t>West Devon</t>
+  </si>
+  <si>
+    <t>Hastings</t>
+  </si>
+  <si>
+    <t>Wealden</t>
+  </si>
+  <si>
+    <t>Basildon</t>
+  </si>
+  <si>
+    <t>Braintree</t>
+  </si>
+  <si>
+    <t>Chelmsford</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Epping Forest</t>
+  </si>
+  <si>
+    <t>Harlow</t>
+  </si>
+  <si>
+    <t>Maldon</t>
+  </si>
+  <si>
+    <t>Rochford</t>
+  </si>
+  <si>
+    <t>Tendring</t>
+  </si>
+  <si>
+    <t>Uttlesford</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Cotswold</t>
+  </si>
+  <si>
+    <t>Forest of Dean</t>
+  </si>
+  <si>
+    <t>Gloucester</t>
+  </si>
+  <si>
+    <t>Tewkesbury</t>
+  </si>
+  <si>
+    <t>Basingstoke Deane</t>
+  </si>
+  <si>
+    <t>East Hampshire</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Fareham</t>
+  </si>
+  <si>
+    <t>Gosport</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Havant</t>
+  </si>
+  <si>
+    <t>New Forest</t>
+  </si>
+  <si>
+    <t>Rushmoor</t>
+  </si>
+  <si>
+    <t>Test Valley</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>Broxbourne</t>
+  </si>
+  <si>
+    <t>Dacorum</t>
+  </si>
+  <si>
+    <t>Hertsmere</t>
+  </si>
+  <si>
+    <t>North Hertfordshire</t>
+  </si>
+  <si>
+    <t>Three Rivers</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>Gravesham</t>
+  </si>
+  <si>
+    <t>Maidstone</t>
+  </si>
+  <si>
+    <t>Sevenoaks</t>
+  </si>
+  <si>
+    <t>Folkestone Hythe</t>
+  </si>
+  <si>
+    <t>Swale</t>
+  </si>
+  <si>
+    <t>Thanet</t>
+  </si>
+  <si>
+    <t>Tonbridge Malling</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Chorley</t>
+  </si>
+  <si>
+    <t>Fylde</t>
+  </si>
+  <si>
+    <t>Hyndburn</t>
+  </si>
+  <si>
+    <t>Pendle</t>
+  </si>
+  <si>
+    <t>Ribble Valley</t>
+  </si>
+  <si>
+    <t>Rossendale</t>
+  </si>
+  <si>
+    <t>South Ribble</t>
+  </si>
+  <si>
+    <t>West Lancashire</t>
+  </si>
+  <si>
+    <t>Wyre</t>
+  </si>
+  <si>
+    <t>Blaby</t>
+  </si>
+  <si>
+    <t>Harborough</t>
+  </si>
+  <si>
+    <t>Hinckley Bosworth</t>
+  </si>
+  <si>
+    <t>North West Leicestershire</t>
+  </si>
+  <si>
+    <t>Oadby Wigston</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>North Kesteven</t>
+  </si>
+  <si>
+    <t>South Holland</t>
+  </si>
+  <si>
+    <t>South Kesteven</t>
+  </si>
+  <si>
+    <t>West Lindsey</t>
+  </si>
+  <si>
+    <t>Breckland</t>
+  </si>
+  <si>
+    <t>Broadland</t>
+  </si>
+  <si>
+    <t>Great Yarmouth</t>
+  </si>
+  <si>
+    <t>King's Lynn West Norfolk</t>
+  </si>
+  <si>
+    <t>North Norfolk</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>South Norfolk</t>
+  </si>
+  <si>
+    <t>Corby</t>
+  </si>
+  <si>
+    <t>Daventry</t>
+  </si>
+  <si>
+    <t>East Northamptonshire</t>
+  </si>
+  <si>
+    <t>Kettering</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>South Northamptonshire</t>
+  </si>
+  <si>
+    <t>Wellingborough</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Ryedale</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Selby</t>
+  </si>
+  <si>
+    <t>Ashfield</t>
+  </si>
+  <si>
+    <t>Bassetlaw</t>
+  </si>
+  <si>
+    <t>Broxtowe</t>
+  </si>
+  <si>
+    <t>Gedling</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Rushcliffe</t>
+  </si>
+  <si>
+    <t>Cherwell</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>South Oxfordshire</t>
+  </si>
+  <si>
+    <t>Vale of White Horse</t>
+  </si>
+  <si>
+    <t>West Oxfordshire</t>
+  </si>
+  <si>
+    <t>Mendip</t>
+  </si>
+  <si>
+    <t>Sedgemoor</t>
+  </si>
+  <si>
+    <t>South Somerset</t>
+  </si>
+  <si>
+    <t>Cannock Chase</t>
+  </si>
+  <si>
+    <t>East Staffordshire</t>
+  </si>
+  <si>
+    <t>Lichfield</t>
+  </si>
+  <si>
+    <t>Newcastle-under-Lyme</t>
+  </si>
+  <si>
+    <t>South Staffordshire</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Staffordshire Moorlands</t>
+  </si>
+  <si>
+    <t>Tamworth</t>
+  </si>
+  <si>
+    <t>Babergh</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Mid Suffolk</t>
+  </si>
+  <si>
+    <t>Elmbridge</t>
+  </si>
+  <si>
+    <t>Epsom Ewell</t>
+  </si>
+  <si>
+    <t>Guildford</t>
+  </si>
+  <si>
+    <t>Mole Valley</t>
+  </si>
+  <si>
+    <t>Reigate Banstead</t>
+  </si>
+  <si>
+    <t>Runnymede</t>
+  </si>
+  <si>
+    <t>Spelthorne</t>
+  </si>
+  <si>
+    <t>Surrey Heath</t>
+  </si>
+  <si>
+    <t>Tandridge</t>
+  </si>
+  <si>
+    <t>Waverley</t>
+  </si>
+  <si>
+    <t>North Warwickshire</t>
+  </si>
+  <si>
+    <t>Nuneaton Bedworth</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Stratford-on-Avon</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Adur</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>Horsham</t>
+  </si>
+  <si>
+    <t>Mid Sussex</t>
+  </si>
+  <si>
+    <t>Worthing</t>
+  </si>
+  <si>
+    <t>Bromsgrove</t>
+  </si>
+  <si>
+    <t>Malvern Hills</t>
+  </si>
+  <si>
+    <t>Redditch</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Wychavon</t>
+  </si>
+  <si>
+    <t>Wyre Forest</t>
+  </si>
+  <si>
+    <t>St Albans</t>
+  </si>
+  <si>
+    <t>Welwyn Hatfield</t>
+  </si>
+  <si>
+    <t>East Hertfordshire</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Bury</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Tameside</t>
+  </si>
+  <si>
+    <t>Trafford</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Knowsley</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>St. Helens</t>
+  </si>
+  <si>
+    <t>Sefton</t>
+  </si>
+  <si>
+    <t>Wirral</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Newcastle upon Tyne</t>
+  </si>
+  <si>
+    <t>North Tyneside</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>Sandwell</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Calderdale</t>
+  </si>
+  <si>
+    <t>Kirklees</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Wakefield</t>
+  </si>
+  <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
+    <t>Barking Dagenham</t>
+  </si>
+  <si>
+    <t>Bexley</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Haringey</t>
+  </si>
+  <si>
+    <t>Kingston upon Thames</t>
+  </si>
+  <si>
+    <t>Merton</t>
+  </si>
+  <si>
+    <t>Tower Hamlets</t>
+  </si>
+  <si>
+    <t>Waltham Forest</t>
+  </si>
+  <si>
+    <t>Local_Authority_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homeless_(including_intentionally_homeless)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affordable_Rent(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affordable_Rent(Starts_on_Site)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Intermediate_Rent_(Starts_on_Site)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate_Rent(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affordable_Home_Ownership(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Affordable_Home_Ownership(Starts_on_Site)</t>
-  </si>
-  <si>
-    <t>Total_Affordable(Starts_on_Site)</t>
-  </si>
-  <si>
-    <t>Affordable_Rent(Completions)</t>
-  </si>
-  <si>
-    <t>Social_Rent(Completions)</t>
-  </si>
-  <si>
-    <t>Intermediate_ Rent(Completions)</t>
-  </si>
-  <si>
-    <t>Affordable_Home_Ownership(Completions)</t>
-  </si>
-  <si>
-    <t>Total_Affordable(Completions)</t>
-  </si>
-  <si>
-    <t>Total(Starts_on_Site)</t>
-  </si>
-  <si>
-    <t>Total(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Market(Starts_on_Site)</t>
-  </si>
-  <si>
-    <t>Market (Completions)</t>
-  </si>
-  <si>
-    <t>A_B_property_counts</t>
-  </si>
-  <si>
-    <t>C_D_property_counts</t>
-  </si>
-  <si>
-    <t>E_F_property_counts</t>
-  </si>
-  <si>
-    <t>G_H_property_counts</t>
-  </si>
-  <si>
-    <t>median_houses_2020</t>
-  </si>
-  <si>
-    <t>median_earning_2020</t>
-  </si>
-  <si>
-    <t>ratio_by_medians_2020</t>
-  </si>
-  <si>
-    <t>lower_quatile_houses_2020</t>
-  </si>
-  <si>
-    <t>lower_quatile_earning_2020</t>
-  </si>
-  <si>
-    <t>ratio_by_lower_quatile_2020</t>
-  </si>
-  <si>
-    <t>Local_Authority_code</t>
-  </si>
-  <si>
-    <t>Local_Authority_name</t>
-  </si>
-  <si>
-    <t>E06000002</t>
-  </si>
-  <si>
-    <t>E06000003</t>
-  </si>
-  <si>
-    <t>E06000004</t>
-  </si>
-  <si>
-    <t>E06000005</t>
-  </si>
-  <si>
-    <t>E06000007</t>
-  </si>
-  <si>
-    <t>E06000008</t>
-  </si>
-  <si>
-    <t>E06000009</t>
-  </si>
-  <si>
-    <t>E06000010</t>
-  </si>
-  <si>
-    <t>E06000011</t>
-  </si>
-  <si>
-    <t>E06000012</t>
-  </si>
-  <si>
-    <t>E06000014</t>
-  </si>
-  <si>
-    <t>E06000015</t>
-  </si>
-  <si>
-    <t>E06000016</t>
-  </si>
-  <si>
-    <t>E06000017</t>
-  </si>
-  <si>
-    <t>E06000018</t>
-  </si>
-  <si>
-    <t>E06000019</t>
-  </si>
-  <si>
-    <t>E06000020</t>
-  </si>
-  <si>
-    <t>E06000021</t>
-  </si>
-  <si>
-    <t>E06000022</t>
-  </si>
-  <si>
-    <t>E06000023</t>
-  </si>
-  <si>
-    <t>E06000024</t>
-  </si>
-  <si>
-    <t>E06000025</t>
-  </si>
-  <si>
-    <t>E06000026</t>
-  </si>
-  <si>
-    <t>E06000027</t>
-  </si>
-  <si>
-    <t>E06000029</t>
-  </si>
-  <si>
-    <t>E06000030</t>
-  </si>
-  <si>
-    <t>E06000031</t>
-  </si>
-  <si>
-    <t>E06000032</t>
-  </si>
-  <si>
-    <t>E06000033</t>
-  </si>
-  <si>
-    <t>E06000034</t>
-  </si>
-  <si>
-    <t>E06000035</t>
-  </si>
-  <si>
-    <t>E06000036</t>
-  </si>
-  <si>
-    <t>E06000037</t>
-  </si>
-  <si>
-    <t>E06000038</t>
-  </si>
-  <si>
-    <t>E06000040</t>
-  </si>
-  <si>
-    <t>E06000041</t>
-  </si>
-  <si>
-    <t>E06000042</t>
-  </si>
-  <si>
-    <t>E06000044</t>
-  </si>
-  <si>
-    <t>E06000045</t>
-  </si>
-  <si>
-    <t>E06000046</t>
-  </si>
-  <si>
-    <t>E06000047</t>
-  </si>
-  <si>
-    <t>E06000049</t>
-  </si>
-  <si>
-    <t>E06000050</t>
-  </si>
-  <si>
-    <t>E06000051</t>
-  </si>
-  <si>
-    <t>E06000052</t>
-  </si>
-  <si>
-    <t>E06000054</t>
-  </si>
-  <si>
-    <t>E06000055</t>
-  </si>
-  <si>
-    <t>E06000056</t>
-  </si>
-  <si>
-    <t>E06000057</t>
-  </si>
-  <si>
-    <t>E07000008</t>
-  </si>
-  <si>
-    <t>E07000010</t>
-  </si>
-  <si>
-    <t>E07000011</t>
-  </si>
-  <si>
-    <t>E07000012</t>
-  </si>
-  <si>
-    <t>E07000028</t>
-  </si>
-  <si>
-    <t>E07000029</t>
-  </si>
-  <si>
-    <t>E07000030</t>
-  </si>
-  <si>
-    <t>E07000031</t>
-  </si>
-  <si>
-    <t>E07000032</t>
-  </si>
-  <si>
-    <t>E07000033</t>
-  </si>
-  <si>
-    <t>E07000034</t>
-  </si>
-  <si>
-    <t>E07000035</t>
-  </si>
-  <si>
-    <t>E07000036</t>
-  </si>
-  <si>
-    <t>E07000037</t>
-  </si>
-  <si>
-    <t>E07000038</t>
-  </si>
-  <si>
-    <t>E07000039</t>
-  </si>
-  <si>
-    <t>E07000040</t>
-  </si>
-  <si>
-    <t>E07000042</t>
-  </si>
-  <si>
-    <t>E07000043</t>
-  </si>
-  <si>
-    <t>E07000044</t>
-  </si>
-  <si>
-    <t>E07000045</t>
-  </si>
-  <si>
-    <t>E07000046</t>
-  </si>
-  <si>
-    <t>E07000047</t>
-  </si>
-  <si>
-    <t>E07000062</t>
-  </si>
-  <si>
-    <t>E07000065</t>
-  </si>
-  <si>
-    <t>E07000066</t>
-  </si>
-  <si>
-    <t>E07000067</t>
-  </si>
-  <si>
-    <t>E07000070</t>
-  </si>
-  <si>
-    <t>E07000071</t>
-  </si>
-  <si>
-    <t>E07000072</t>
-  </si>
-  <si>
-    <t>E07000073</t>
-  </si>
-  <si>
-    <t>E07000074</t>
-  </si>
-  <si>
-    <t>E07000075</t>
-  </si>
-  <si>
-    <t>E07000076</t>
-  </si>
-  <si>
-    <t>E07000077</t>
-  </si>
-  <si>
-    <t>E07000078</t>
-  </si>
-  <si>
-    <t>E07000079</t>
-  </si>
-  <si>
-    <t>E07000080</t>
-  </si>
-  <si>
-    <t>E07000081</t>
-  </si>
-  <si>
-    <t>E07000083</t>
-  </si>
-  <si>
-    <t>E07000084</t>
-  </si>
-  <si>
-    <t>E07000085</t>
-  </si>
-  <si>
-    <t>E07000086</t>
-  </si>
-  <si>
-    <t>E07000087</t>
-  </si>
-  <si>
-    <t>E07000088</t>
-  </si>
-  <si>
-    <t>E07000089</t>
-  </si>
-  <si>
-    <t>E07000090</t>
-  </si>
-  <si>
-    <t>E07000091</t>
-  </si>
-  <si>
-    <t>E07000092</t>
-  </si>
-  <si>
-    <t>E07000093</t>
-  </si>
-  <si>
-    <t>E07000094</t>
-  </si>
-  <si>
-    <t>E07000095</t>
-  </si>
-  <si>
-    <t>E07000096</t>
-  </si>
-  <si>
-    <t>E07000098</t>
-  </si>
-  <si>
-    <t>E07000099</t>
-  </si>
-  <si>
-    <t>E07000102</t>
-  </si>
-  <si>
-    <t>E07000103</t>
-  </si>
-  <si>
-    <t>E07000105</t>
-  </si>
-  <si>
-    <t>E07000106</t>
-  </si>
-  <si>
-    <t>E07000108</t>
-  </si>
-  <si>
-    <t>E07000109</t>
-  </si>
-  <si>
-    <t>E07000110</t>
-  </si>
-  <si>
-    <t>E07000111</t>
-  </si>
-  <si>
-    <t>E07000112</t>
-  </si>
-  <si>
-    <t>E07000113</t>
-  </si>
-  <si>
-    <t>E07000114</t>
-  </si>
-  <si>
-    <t>E07000115</t>
-  </si>
-  <si>
-    <t>E07000117</t>
-  </si>
-  <si>
-    <t>E07000118</t>
-  </si>
-  <si>
-    <t>E07000119</t>
-  </si>
-  <si>
-    <t>E07000120</t>
-  </si>
-  <si>
-    <t>E07000122</t>
-  </si>
-  <si>
-    <t>E07000124</t>
-  </si>
-  <si>
-    <t>E07000125</t>
-  </si>
-  <si>
-    <t>E07000126</t>
-  </si>
-  <si>
-    <t>E07000127</t>
-  </si>
-  <si>
-    <t>E07000128</t>
-  </si>
-  <si>
-    <t>E07000129</t>
-  </si>
-  <si>
-    <t>E07000131</t>
-  </si>
-  <si>
-    <t>E07000132</t>
-  </si>
-  <si>
-    <t>E07000134</t>
-  </si>
-  <si>
-    <t>E07000135</t>
-  </si>
-  <si>
-    <t>E07000136</t>
-  </si>
-  <si>
-    <t>E07000138</t>
-  </si>
-  <si>
-    <t>E07000139</t>
-  </si>
-  <si>
-    <t>E07000140</t>
-  </si>
-  <si>
-    <t>E07000141</t>
-  </si>
-  <si>
-    <t>E07000142</t>
-  </si>
-  <si>
-    <t>E07000143</t>
-  </si>
-  <si>
-    <t>E07000144</t>
-  </si>
-  <si>
-    <t>E07000145</t>
-  </si>
-  <si>
-    <t>E07000146</t>
-  </si>
-  <si>
-    <t>E07000147</t>
-  </si>
-  <si>
-    <t>E07000148</t>
-  </si>
-  <si>
-    <t>E07000149</t>
-  </si>
-  <si>
-    <t>E07000150</t>
-  </si>
-  <si>
-    <t>E07000151</t>
-  </si>
-  <si>
-    <t>E07000152</t>
-  </si>
-  <si>
-    <t>E07000153</t>
-  </si>
-  <si>
-    <t>E07000154</t>
-  </si>
-  <si>
-    <t>E07000155</t>
-  </si>
-  <si>
-    <t>E07000156</t>
-  </si>
-  <si>
-    <t>E07000163</t>
-  </si>
-  <si>
-    <t>E07000167</t>
-  </si>
-  <si>
-    <t>E07000168</t>
-  </si>
-  <si>
-    <t>E07000169</t>
-  </si>
-  <si>
-    <t>E07000170</t>
-  </si>
-  <si>
-    <t>E07000171</t>
-  </si>
-  <si>
-    <t>E07000172</t>
-  </si>
-  <si>
-    <t>E07000173</t>
-  </si>
-  <si>
-    <t>E07000174</t>
-  </si>
-  <si>
-    <t>E07000176</t>
-  </si>
-  <si>
-    <t>E07000177</t>
-  </si>
-  <si>
-    <t>E07000178</t>
-  </si>
-  <si>
-    <t>E07000179</t>
-  </si>
-  <si>
-    <t>E07000180</t>
-  </si>
-  <si>
-    <t>E07000181</t>
-  </si>
-  <si>
-    <t>E07000187</t>
-  </si>
-  <si>
-    <t>E07000188</t>
-  </si>
-  <si>
-    <t>E07000189</t>
-  </si>
-  <si>
-    <t>E07000192</t>
-  </si>
-  <si>
-    <t>E07000193</t>
-  </si>
-  <si>
-    <t>E07000194</t>
-  </si>
-  <si>
-    <t>E07000195</t>
-  </si>
-  <si>
-    <t>E07000196</t>
-  </si>
-  <si>
-    <t>E07000197</t>
-  </si>
-  <si>
-    <t>E07000198</t>
-  </si>
-  <si>
-    <t>E07000199</t>
-  </si>
-  <si>
-    <t>E07000200</t>
-  </si>
-  <si>
-    <t>E07000202</t>
-  </si>
-  <si>
-    <t>E07000203</t>
-  </si>
-  <si>
-    <t>E07000207</t>
-  </si>
-  <si>
-    <t>E07000208</t>
-  </si>
-  <si>
-    <t>E07000209</t>
-  </si>
-  <si>
-    <t>E07000210</t>
-  </si>
-  <si>
-    <t>E07000211</t>
-  </si>
-  <si>
-    <t>E07000212</t>
-  </si>
-  <si>
-    <t>E07000213</t>
-  </si>
-  <si>
-    <t>E07000214</t>
-  </si>
-  <si>
-    <t>E07000215</t>
-  </si>
-  <si>
-    <t>E07000216</t>
-  </si>
-  <si>
-    <t>E07000218</t>
-  </si>
-  <si>
-    <t>E07000219</t>
-  </si>
-  <si>
-    <t>E07000220</t>
-  </si>
-  <si>
-    <t>E07000221</t>
-  </si>
-  <si>
-    <t>E07000222</t>
-  </si>
-  <si>
-    <t>E07000223</t>
-  </si>
-  <si>
-    <t>E07000224</t>
-  </si>
-  <si>
-    <t>E07000226</t>
-  </si>
-  <si>
-    <t>E07000227</t>
-  </si>
-  <si>
-    <t>E07000228</t>
-  </si>
-  <si>
-    <t>E07000229</t>
-  </si>
-  <si>
-    <t>E07000234</t>
-  </si>
-  <si>
-    <t>E07000235</t>
-  </si>
-  <si>
-    <t>E07000236</t>
-  </si>
-  <si>
-    <t>E07000237</t>
-  </si>
-  <si>
-    <t>E07000238</t>
-  </si>
-  <si>
-    <t>E07000239</t>
-  </si>
-  <si>
-    <t>E07000240</t>
-  </si>
-  <si>
-    <t>E07000241</t>
-  </si>
-  <si>
-    <t>E07000242</t>
-  </si>
-  <si>
-    <t>E08000001</t>
-  </si>
-  <si>
-    <t>E08000002</t>
-  </si>
-  <si>
-    <t>E08000003</t>
-  </si>
-  <si>
-    <t>E08000004</t>
-  </si>
-  <si>
-    <t>E08000005</t>
-  </si>
-  <si>
-    <t>E08000006</t>
-  </si>
-  <si>
-    <t>E08000007</t>
-  </si>
-  <si>
-    <t>E08000008</t>
-  </si>
-  <si>
-    <t>E08000009</t>
-  </si>
-  <si>
-    <t>E08000010</t>
-  </si>
-  <si>
-    <t>E08000011</t>
-  </si>
-  <si>
-    <t>E08000012</t>
-  </si>
-  <si>
-    <t>E08000013</t>
-  </si>
-  <si>
-    <t>E08000014</t>
-  </si>
-  <si>
-    <t>E08000015</t>
-  </si>
-  <si>
-    <t>E08000016</t>
-  </si>
-  <si>
-    <t>E08000017</t>
-  </si>
-  <si>
-    <t>E08000018</t>
-  </si>
-  <si>
-    <t>E08000019</t>
-  </si>
-  <si>
-    <t>E08000021</t>
-  </si>
-  <si>
-    <t>E08000022</t>
-  </si>
-  <si>
-    <t>E08000024</t>
-  </si>
-  <si>
-    <t>E08000025</t>
-  </si>
-  <si>
-    <t>E08000026</t>
-  </si>
-  <si>
-    <t>E08000027</t>
-  </si>
-  <si>
-    <t>E08000028</t>
-  </si>
-  <si>
-    <t>E08000029</t>
-  </si>
-  <si>
-    <t>E08000030</t>
-  </si>
-  <si>
-    <t>E08000031</t>
-  </si>
-  <si>
-    <t>E08000032</t>
-  </si>
-  <si>
-    <t>E08000033</t>
-  </si>
-  <si>
-    <t>E08000034</t>
-  </si>
-  <si>
-    <t>E08000035</t>
-  </si>
-  <si>
-    <t>E08000036</t>
-  </si>
-  <si>
-    <t>E08000037</t>
-  </si>
-  <si>
-    <t>E09000002</t>
-  </si>
-  <si>
-    <t>E09000004</t>
-  </si>
-  <si>
-    <t>E09000005</t>
-  </si>
-  <si>
-    <t>E09000014</t>
-  </si>
-  <si>
-    <t>E09000021</t>
-  </si>
-  <si>
-    <t>E09000024</t>
-  </si>
-  <si>
-    <t>E09000030</t>
-  </si>
-  <si>
-    <t>E09000031</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Redcar Cleveland</t>
-  </si>
-  <si>
-    <t>Stockton-on-Tees</t>
-  </si>
-  <si>
-    <t>Darlington</t>
-  </si>
-  <si>
-    <t>Warrington</t>
-  </si>
-  <si>
-    <t>Blackburn with Darwen</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Kingston upon Hull</t>
-  </si>
-  <si>
-    <t>East Riding of Yorkshire</t>
-  </si>
-  <si>
-    <t>North East Lincolnshire</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Rutland</t>
-  </si>
-  <si>
-    <t>Nottingham</t>
-  </si>
-  <si>
-    <t>Herefordshire, County of</t>
-  </si>
-  <si>
-    <t>Telford Wrekin</t>
-  </si>
-  <si>
-    <t>Stoke-on-Trent</t>
-  </si>
-  <si>
-    <t>Bath North East Somerset</t>
-  </si>
-  <si>
-    <t>Bristol</t>
-  </si>
-  <si>
-    <t>North Somerset</t>
-  </si>
-  <si>
-    <t>South Gloucestershire</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Torbay</t>
-  </si>
-  <si>
-    <t>Poole</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Peterborough</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Southend-on-Sea</t>
-  </si>
-  <si>
-    <t>Thurrock</t>
-  </si>
-  <si>
-    <t>Medway</t>
-  </si>
-  <si>
-    <t>Bracknell Forest</t>
-  </si>
-  <si>
-    <t>West Berkshire</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Windsor Maidenhead</t>
-  </si>
-  <si>
-    <t>Wokingham</t>
-  </si>
-  <si>
-    <t>Milton Keynes</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Isle of Wight</t>
-  </si>
-  <si>
-    <t>County Durham</t>
-  </si>
-  <si>
-    <t>Cheshire East</t>
-  </si>
-  <si>
-    <t>Cheshire West Chester</t>
-  </si>
-  <si>
-    <t>Shropshire</t>
-  </si>
-  <si>
-    <t>Cornwall</t>
-  </si>
-  <si>
-    <t>Wiltshire</t>
-  </si>
-  <si>
-    <t>Bedford</t>
-  </si>
-  <si>
-    <t>Central Bedfordshire</t>
-  </si>
-  <si>
-    <t>Northumberland</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Fenland</t>
-  </si>
-  <si>
-    <t>Huntingdonshire</t>
-  </si>
-  <si>
-    <t>South Cambridgeshire</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Copeland</t>
-  </si>
-  <si>
-    <t>Eden</t>
-  </si>
-  <si>
-    <t>South Lakeland</t>
-  </si>
-  <si>
-    <t>Amber Valley</t>
-  </si>
-  <si>
-    <t>Bolsover</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Derbyshire Dales</t>
-  </si>
-  <si>
-    <t>Erewash</t>
-  </si>
-  <si>
-    <t>High Peak</t>
-  </si>
-  <si>
-    <t>North East Derbyshire</t>
-  </si>
-  <si>
-    <t>South Derbyshire</t>
-  </si>
-  <si>
-    <t>East Devon</t>
-  </si>
-  <si>
-    <t>Mid Devon</t>
-  </si>
-  <si>
-    <t>North Devon</t>
-  </si>
-  <si>
-    <t>South Hams</t>
-  </si>
-  <si>
-    <t>Teignbridge</t>
-  </si>
-  <si>
-    <t>Torridge</t>
-  </si>
-  <si>
-    <t>West Devon</t>
-  </si>
-  <si>
-    <t>Hastings</t>
-  </si>
-  <si>
-    <t>Wealden</t>
-  </si>
-  <si>
-    <t>Basildon</t>
-  </si>
-  <si>
-    <t>Braintree</t>
-  </si>
-  <si>
-    <t>Chelmsford</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Epping Forest</t>
-  </si>
-  <si>
-    <t>Harlow</t>
-  </si>
-  <si>
-    <t>Maldon</t>
-  </si>
-  <si>
-    <t>Rochford</t>
-  </si>
-  <si>
-    <t>Tendring</t>
-  </si>
-  <si>
-    <t>Uttlesford</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Cotswold</t>
-  </si>
-  <si>
-    <t>Forest of Dean</t>
-  </si>
-  <si>
-    <t>Gloucester</t>
-  </si>
-  <si>
-    <t>Tewkesbury</t>
-  </si>
-  <si>
-    <t>Basingstoke Deane</t>
-  </si>
-  <si>
-    <t>East Hampshire</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Fareham</t>
-  </si>
-  <si>
-    <t>Gosport</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>Havant</t>
-  </si>
-  <si>
-    <t>New Forest</t>
-  </si>
-  <si>
-    <t>Rushmoor</t>
-  </si>
-  <si>
-    <t>Test Valley</t>
-  </si>
-  <si>
-    <t>Winchester</t>
-  </si>
-  <si>
-    <t>Broxbourne</t>
-  </si>
-  <si>
-    <t>Dacorum</t>
-  </si>
-  <si>
-    <t>Hertsmere</t>
-  </si>
-  <si>
-    <t>North Hertfordshire</t>
-  </si>
-  <si>
-    <t>Three Rivers</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Ashford</t>
-  </si>
-  <si>
-    <t>Canterbury</t>
-  </si>
-  <si>
-    <t>Dover</t>
-  </si>
-  <si>
-    <t>Gravesham</t>
-  </si>
-  <si>
-    <t>Maidstone</t>
-  </si>
-  <si>
-    <t>Sevenoaks</t>
-  </si>
-  <si>
-    <t>Folkestone Hythe</t>
-  </si>
-  <si>
-    <t>Swale</t>
-  </si>
-  <si>
-    <t>Thanet</t>
-  </si>
-  <si>
-    <t>Tonbridge Malling</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Chorley</t>
-  </si>
-  <si>
-    <t>Fylde</t>
-  </si>
-  <si>
-    <t>Hyndburn</t>
-  </si>
-  <si>
-    <t>Pendle</t>
-  </si>
-  <si>
-    <t>Ribble Valley</t>
-  </si>
-  <si>
-    <t>Rossendale</t>
-  </si>
-  <si>
-    <t>South Ribble</t>
-  </si>
-  <si>
-    <t>West Lancashire</t>
-  </si>
-  <si>
-    <t>Wyre</t>
-  </si>
-  <si>
-    <t>Blaby</t>
-  </si>
-  <si>
-    <t>Harborough</t>
-  </si>
-  <si>
-    <t>Hinckley Bosworth</t>
-  </si>
-  <si>
-    <t>North West Leicestershire</t>
-  </si>
-  <si>
-    <t>Oadby Wigston</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>North Kesteven</t>
-  </si>
-  <si>
-    <t>South Holland</t>
-  </si>
-  <si>
-    <t>South Kesteven</t>
-  </si>
-  <si>
-    <t>West Lindsey</t>
-  </si>
-  <si>
-    <t>Breckland</t>
-  </si>
-  <si>
-    <t>Broadland</t>
-  </si>
-  <si>
-    <t>Great Yarmouth</t>
-  </si>
-  <si>
-    <t>King's Lynn West Norfolk</t>
-  </si>
-  <si>
-    <t>North Norfolk</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>South Norfolk</t>
-  </si>
-  <si>
-    <t>Corby</t>
-  </si>
-  <si>
-    <t>Daventry</t>
-  </si>
-  <si>
-    <t>East Northamptonshire</t>
-  </si>
-  <si>
-    <t>Kettering</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>South Northamptonshire</t>
-  </si>
-  <si>
-    <t>Wellingborough</t>
-  </si>
-  <si>
-    <t>Craven</t>
-  </si>
-  <si>
-    <t>Ryedale</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Selby</t>
-  </si>
-  <si>
-    <t>Ashfield</t>
-  </si>
-  <si>
-    <t>Bassetlaw</t>
-  </si>
-  <si>
-    <t>Broxtowe</t>
-  </si>
-  <si>
-    <t>Gedling</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Rushcliffe</t>
-  </si>
-  <si>
-    <t>Cherwell</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>South Oxfordshire</t>
-  </si>
-  <si>
-    <t>Vale of White Horse</t>
-  </si>
-  <si>
-    <t>West Oxfordshire</t>
-  </si>
-  <si>
-    <t>Mendip</t>
-  </si>
-  <si>
-    <t>Sedgemoor</t>
-  </si>
-  <si>
-    <t>South Somerset</t>
-  </si>
-  <si>
-    <t>Cannock Chase</t>
-  </si>
-  <si>
-    <t>East Staffordshire</t>
-  </si>
-  <si>
-    <t>Lichfield</t>
-  </si>
-  <si>
-    <t>Newcastle-under-Lyme</t>
-  </si>
-  <si>
-    <t>South Staffordshire</t>
-  </si>
-  <si>
-    <t>Stafford</t>
-  </si>
-  <si>
-    <t>Staffordshire Moorlands</t>
-  </si>
-  <si>
-    <t>Tamworth</t>
-  </si>
-  <si>
-    <t>Babergh</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Mid Suffolk</t>
-  </si>
-  <si>
-    <t>Elmbridge</t>
-  </si>
-  <si>
-    <t>Epsom Ewell</t>
-  </si>
-  <si>
-    <t>Guildford</t>
-  </si>
-  <si>
-    <t>Mole Valley</t>
-  </si>
-  <si>
-    <t>Reigate Banstead</t>
-  </si>
-  <si>
-    <t>Runnymede</t>
-  </si>
-  <si>
-    <t>Spelthorne</t>
-  </si>
-  <si>
-    <t>Surrey Heath</t>
-  </si>
-  <si>
-    <t>Tandridge</t>
-  </si>
-  <si>
-    <t>Waverley</t>
-  </si>
-  <si>
-    <t>North Warwickshire</t>
-  </si>
-  <si>
-    <t>Nuneaton Bedworth</t>
-  </si>
-  <si>
-    <t>Rugby</t>
-  </si>
-  <si>
-    <t>Stratford-on-Avon</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>Adur</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Crawley</t>
-  </si>
-  <si>
-    <t>Horsham</t>
-  </si>
-  <si>
-    <t>Mid Sussex</t>
-  </si>
-  <si>
-    <t>Worthing</t>
-  </si>
-  <si>
-    <t>Bromsgrove</t>
-  </si>
-  <si>
-    <t>Malvern Hills</t>
-  </si>
-  <si>
-    <t>Redditch</t>
-  </si>
-  <si>
-    <t>Worcester</t>
-  </si>
-  <si>
-    <t>Wychavon</t>
-  </si>
-  <si>
-    <t>Wyre Forest</t>
-  </si>
-  <si>
-    <t>St Albans</t>
-  </si>
-  <si>
-    <t>Welwyn Hatfield</t>
-  </si>
-  <si>
-    <t>East Hertfordshire</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Bury</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Tameside</t>
-  </si>
-  <si>
-    <t>Trafford</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Knowsley</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>St. Helens</t>
-  </si>
-  <si>
-    <t>Sefton</t>
-  </si>
-  <si>
-    <t>Wirral</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>Newcastle upon Tyne</t>
-  </si>
-  <si>
-    <t>North Tyneside</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Dudley</t>
-  </si>
-  <si>
-    <t>Sandwell</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Wolverhampton</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Calderdale</t>
-  </si>
-  <si>
-    <t>Kirklees</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Wakefield</t>
-  </si>
-  <si>
-    <t>Gateshead</t>
-  </si>
-  <si>
-    <t>Barking Dagenham</t>
-  </si>
-  <si>
-    <t>Bexley</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>Haringey</t>
-  </si>
-  <si>
-    <t>Kingston upon Thames</t>
-  </si>
-  <si>
-    <t>Merton</t>
-  </si>
-  <si>
-    <t>Tower Hamlets</t>
-  </si>
-  <si>
-    <t>Waltham Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2064,24 +2078,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" customWidth="1"/>
-    <col min="9" max="11" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="1"/>
+    <col min="13" max="13" width="77.875" customWidth="1"/>
+    <col min="14" max="14" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2102,96 +2125,96 @@
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2">
         <v>986</v>
@@ -2293,15 +2316,15 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2">
         <v>522</v>
@@ -2403,15 +2426,15 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2">
         <v>2199</v>
@@ -2513,15 +2536,15 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D5" s="2">
         <v>711</v>
@@ -2623,15 +2646,15 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2">
         <v>1796</v>
@@ -2733,15 +2756,15 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D7" s="2">
         <v>885</v>
@@ -2843,15 +2866,15 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D8" s="2">
         <v>1105</v>
@@ -2953,15 +2976,15 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D9" s="2">
         <v>2530</v>
@@ -3063,15 +3086,15 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D10" s="2">
         <v>407</v>
@@ -3173,15 +3196,15 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D11" s="2">
         <v>1275</v>
@@ -3283,15 +3306,15 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D12" s="2">
         <v>803</v>
@@ -3393,15 +3416,15 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D13" s="2">
         <v>2195</v>
@@ -3503,15 +3526,15 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D14" s="2">
         <v>2428</v>
@@ -3613,15 +3636,15 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D15" s="2">
         <v>85</v>
@@ -3723,15 +3746,15 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D16" s="2">
         <v>2768</v>
@@ -3833,15 +3856,15 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D17" s="2">
         <v>1120</v>
@@ -3943,15 +3966,15 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D18" s="2">
         <v>898</v>
@@ -4053,15 +4076,15 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D19" s="2">
         <v>1383</v>
@@ -4163,15 +4186,15 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D20" s="2">
         <v>398</v>
@@ -4273,15 +4296,15 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D21" s="2">
         <v>2769</v>
@@ -4383,15 +4406,15 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D22" s="2">
         <v>897</v>
@@ -4493,15 +4516,15 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D23" s="2">
         <v>842</v>
@@ -4603,15 +4626,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
         <v>1990</v>
@@ -4713,15 +4736,15 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D25" s="2">
         <v>1051</v>
@@ -4823,15 +4846,15 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D26" s="2">
         <v>2093</v>
@@ -4933,15 +4956,15 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D27" s="2">
         <v>1140</v>
@@ -5043,15 +5066,15 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D28" s="2">
         <v>1005</v>
@@ -5153,15 +5176,15 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D29" s="2">
         <v>1444</v>
@@ -5263,15 +5286,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D30" s="2">
         <v>1235</v>
@@ -5373,15 +5396,15 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D31" s="2">
         <v>713</v>
@@ -5483,15 +5506,15 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D32" s="2">
         <v>1588</v>
@@ -5593,15 +5616,15 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2">
         <v>740</v>
@@ -5703,15 +5726,15 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2">
         <v>493</v>
@@ -5813,15 +5836,15 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D35" s="2">
         <v>945</v>
@@ -5923,15 +5946,15 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2">
         <v>467</v>
@@ -6033,15 +6056,15 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D37" s="2">
         <v>319</v>
@@ -6143,15 +6166,15 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D38" s="2">
         <v>1881</v>
@@ -6253,15 +6276,15 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D39" s="2">
         <v>1986</v>
@@ -6363,15 +6386,15 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D40" s="2">
         <v>1236</v>
@@ -6473,15 +6496,15 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2">
         <v>700</v>
@@ -6583,15 +6606,15 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2">
         <v>2643</v>
@@ -6693,15 +6716,15 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D43" s="2">
         <v>1280</v>
@@ -6803,15 +6826,15 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2">
         <v>1799</v>
@@ -6913,15 +6936,15 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D45" s="2">
         <v>1143</v>
@@ -7023,15 +7046,15 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D46" s="2">
         <v>3223</v>
@@ -7133,15 +7156,15 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D47" s="2">
         <v>1443</v>
@@ -7243,15 +7266,15 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D48" s="2">
         <v>1077</v>
@@ -7353,15 +7376,15 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D49" s="2">
         <v>1150</v>
@@ -7463,15 +7486,15 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D50" s="2">
         <v>665</v>
@@ -7573,15 +7596,15 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D51" s="2">
         <v>599</v>
@@ -7683,15 +7706,15 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D52" s="2">
         <v>429</v>
@@ -7793,15 +7816,15 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D53" s="2">
         <v>928</v>
@@ -7903,15 +7926,15 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D54" s="2">
         <v>420</v>
@@ -8013,15 +8036,15 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D55" s="2">
         <v>352</v>
@@ -8123,15 +8146,15 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D56" s="2">
         <v>283</v>
@@ -8233,15 +8256,15 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D57" s="2">
         <v>121</v>
@@ -8343,15 +8366,15 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2">
         <v>397</v>
@@ -8453,15 +8476,15 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D59" s="2">
         <v>397</v>
@@ -8563,15 +8586,15 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D60" s="2">
         <v>98</v>
@@ -8673,15 +8696,15 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D61" s="2">
         <v>568</v>
@@ -8783,15 +8806,15 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D62" s="2">
         <v>241</v>
@@ -8893,15 +8916,15 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2">
         <v>293</v>
@@ -9003,15 +9026,15 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D64" s="2">
         <v>447</v>
@@ -9113,15 +9136,15 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D65" s="2">
         <v>235</v>
@@ -9223,15 +9246,15 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D66" s="2">
         <v>279</v>
@@ -9333,15 +9356,15 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D67" s="2">
         <v>573</v>
@@ -9443,15 +9466,15 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D68" s="2">
         <v>325</v>
@@ -9553,15 +9576,15 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D69" s="2">
         <v>1017</v>
@@ -9663,15 +9686,15 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D70" s="2">
         <v>398</v>
@@ -9773,15 +9796,15 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D71" s="2">
         <v>826</v>
@@ -9883,15 +9906,15 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D72" s="2">
         <v>426</v>
@@ -9993,15 +10016,15 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D73" s="2">
         <v>257</v>
@@ -10103,15 +10126,15 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D74" s="2">
         <v>929</v>
@@ -10213,15 +10236,15 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D75" s="2">
         <v>474</v>
@@ -10323,15 +10346,15 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D76" s="2">
         <v>652</v>
@@ -10433,15 +10456,15 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D77" s="2">
         <v>450</v>
@@ -10543,15 +10566,15 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D78" s="2">
         <v>799</v>
@@ -10653,15 +10676,15 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D79" s="2">
         <v>738</v>
@@ -10763,15 +10786,15 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D80" s="2">
         <v>381</v>
@@ -10873,15 +10896,15 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D81" s="2">
         <v>288</v>
@@ -10983,15 +11006,15 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D82" s="2">
         <v>172</v>
@@ -11093,15 +11116,15 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D83" s="2">
         <v>208</v>
@@ -11203,15 +11226,15 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D84" s="2">
         <v>708</v>
@@ -11313,15 +11336,15 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D85" s="2">
         <v>148</v>
@@ -11423,15 +11446,15 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D86" s="2">
         <v>518</v>
@@ -11533,15 +11556,15 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D87" s="2">
         <v>219</v>
@@ -11643,15 +11666,15 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D88" s="2">
         <v>328</v>
@@ -11753,15 +11776,15 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D89" s="2">
         <v>1223</v>
@@ -11863,15 +11886,15 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D90" s="2">
         <v>303</v>
@@ -11973,15 +11996,15 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D91" s="2">
         <v>387</v>
@@ -12083,15 +12106,15 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D92" s="2">
         <v>288</v>
@@ -12193,15 +12216,15 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D93" s="2">
         <v>277</v>
@@ -12303,15 +12326,15 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D94" s="2">
         <v>357</v>
@@ -12413,15 +12436,15 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D95" s="2">
         <v>418</v>
@@ -12523,15 +12546,15 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D96" s="2">
         <v>99</v>
@@ -12633,15 +12656,15 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D97" s="2">
         <v>436</v>
@@ -12743,15 +12766,15 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D98" s="2">
         <v>783</v>
@@ -12853,15 +12876,15 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D99" s="2">
         <v>475</v>
@@ -12963,15 +12986,15 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D100" s="2">
         <v>478</v>
@@ -13073,15 +13096,15 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D101" s="2">
         <v>288</v>
@@ -13183,15 +13206,15 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D102" s="2">
         <v>680</v>
@@ -13293,15 +13316,15 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D103" s="2">
         <v>840</v>
@@ -13403,15 +13426,15 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D104" s="2">
         <v>275</v>
@@ -13513,15 +13536,15 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D105" s="2">
         <v>614</v>
@@ -13623,15 +13646,15 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D106" s="2">
         <v>348</v>
@@ -13733,15 +13756,15 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D107" s="2">
         <v>314</v>
@@ -13843,15 +13866,15 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D108" s="2">
         <v>562</v>
@@ -13953,15 +13976,15 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D109" s="2">
         <v>778</v>
@@ -14063,15 +14086,15 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D110" s="2">
         <v>461</v>
@@ -14173,15 +14196,15 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D111" s="2">
         <v>621</v>
@@ -14283,15 +14306,15 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D112" s="2">
         <v>871</v>
@@ -14393,15 +14416,15 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D113" s="2">
         <v>392</v>
@@ -14503,15 +14526,15 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D114" s="2">
         <v>401</v>
@@ -14613,15 +14636,15 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D115" s="2">
         <v>821</v>
@@ -14723,15 +14746,15 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D116" s="2">
         <v>1235</v>
@@ -14833,15 +14856,15 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D117" s="2">
         <v>305</v>
@@ -14943,15 +14966,15 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D118" s="2">
         <v>516</v>
@@ -15053,15 +15076,15 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D119" s="2">
         <v>820</v>
@@ -15163,15 +15186,15 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D120" s="2">
         <v>163</v>
@@ -15273,15 +15296,15 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D121" s="2">
         <v>190</v>
@@ -15383,15 +15406,15 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D122" s="2">
         <v>213</v>
@@ -15493,15 +15516,15 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D123" s="2">
         <v>57</v>
@@ -15603,15 +15626,15 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D124" s="2">
         <v>362</v>
@@ -15713,15 +15736,15 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D125" s="2">
         <v>581</v>
@@ -15823,15 +15846,15 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D126" s="2">
         <v>138</v>
@@ -15933,15 +15956,15 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D127" s="2">
         <v>507</v>
@@ -16043,15 +16066,15 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D128" s="2">
         <v>354</v>
@@ -16153,15 +16176,15 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D129" s="2">
         <v>205</v>
@@ -16263,15 +16286,15 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D130" s="2">
         <v>380</v>
@@ -16373,15 +16396,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D131" s="2">
         <v>288</v>
@@ -16483,15 +16506,15 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D132" s="2">
         <v>152</v>
@@ -16593,15 +16616,15 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D133" s="2">
         <v>198</v>
@@ -16703,15 +16726,15 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D134" s="2">
         <v>621</v>
@@ -16813,15 +16836,15 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D135" s="2">
         <v>415</v>
@@ -16923,15 +16946,15 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D136" s="2">
         <v>304</v>
@@ -17033,15 +17056,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D137" s="2">
         <v>587</v>
@@ -17143,15 +17166,15 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D138" s="2">
         <v>500</v>
@@ -17253,15 +17276,15 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D139" s="2">
         <v>586</v>
@@ -17363,15 +17386,15 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D140" s="2">
         <v>111</v>
@@ -17473,15 +17496,15 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D141" s="2">
         <v>703</v>
@@ -17583,15 +17606,15 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D142" s="2">
         <v>310</v>
@@ -17693,15 +17716,15 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D143" s="2">
         <v>279</v>
@@ -17803,15 +17826,15 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D144" s="2">
         <v>708</v>
@@ -17913,15 +17936,15 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D145" s="2">
         <v>183</v>
@@ -18023,15 +18046,15 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D146" s="2">
         <v>289</v>
@@ -18133,15 +18156,15 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D147" s="2">
         <v>318</v>
@@ -18243,15 +18266,15 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D148" s="2">
         <v>185</v>
@@ -18353,15 +18376,15 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D149" s="2">
         <v>447</v>
@@ -18463,15 +18486,15 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D150" s="2">
         <v>1511</v>
@@ -18573,15 +18596,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D151" s="2">
         <v>216</v>
@@ -18683,15 +18706,15 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D152" s="2">
         <v>348</v>
@@ -18793,15 +18816,15 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D153" s="2">
         <v>85</v>
@@ -18903,15 +18926,15 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D154" s="2">
         <v>215</v>
@@ -19013,15 +19036,15 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D155" s="2">
         <v>648</v>
@@ -19123,15 +19146,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D156" s="2">
         <v>227</v>
@@ -19233,15 +19256,15 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D157" s="2">
         <v>348</v>
@@ -19343,15 +19366,15 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D158" s="2">
         <v>230</v>
@@ -19453,15 +19476,15 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D159" s="2">
         <v>218</v>
@@ -19563,15 +19586,15 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D160" s="2">
         <v>244</v>
@@ -19673,15 +19696,15 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D161" s="2">
         <v>193</v>
@@ -19783,15 +19806,15 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D162" s="2">
         <v>198</v>
@@ -19893,15 +19916,15 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D163" s="2">
         <v>313</v>
@@ -20003,15 +20026,15 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D164" s="2">
         <v>556</v>
@@ -20113,15 +20136,15 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D165" s="2">
         <v>364</v>
@@ -20223,15 +20246,15 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D166" s="2">
         <v>394</v>
@@ -20333,15 +20356,15 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D167" s="2">
         <v>256</v>
@@ -20443,15 +20466,15 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D168" s="2">
         <v>606</v>
@@ -20553,15 +20576,15 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D169" s="2">
         <v>709</v>
@@ -20663,15 +20686,15 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D170" s="2">
         <v>595</v>
@@ -20773,15 +20796,15 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D171" s="2">
         <v>178</v>
@@ -20883,15 +20906,15 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D172" s="2">
         <v>271</v>
@@ -20993,15 +21016,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D173" s="2">
         <v>261</v>
@@ -21103,15 +21126,15 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D174" s="2">
         <v>389</v>
@@ -21213,15 +21236,15 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D175" s="2">
         <v>76</v>
@@ -21323,15 +21346,15 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D176" s="2">
         <v>204</v>
@@ -21433,15 +21456,15 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D177" s="2">
         <v>240</v>
@@ -21543,15 +21566,15 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D178" s="2">
         <v>320</v>
@@ -21653,15 +21676,15 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D179" s="2">
         <v>317</v>
@@ -21763,15 +21786,15 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D180" s="2">
         <v>1827</v>
@@ -21873,15 +21896,15 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D181" s="2">
         <v>258</v>
@@ -21983,15 +22006,15 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D182" s="2">
         <v>310</v>
@@ -22093,15 +22116,15 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D183" s="2">
         <v>222</v>
@@ -22203,15 +22226,15 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D184" s="2">
         <v>378</v>
@@ -22313,15 +22336,15 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D185" s="2">
         <v>268</v>
@@ -22423,15 +22446,15 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D186" s="2">
         <v>489</v>
@@ -22533,15 +22556,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D187" s="2">
         <v>224</v>
@@ -22643,15 +22666,15 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D188" s="2">
         <v>382</v>
@@ -22753,15 +22776,15 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D189" s="2">
         <v>146</v>
@@ -22863,15 +22886,15 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D190" s="2">
         <v>244</v>
@@ -22973,15 +22996,15 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D191" s="2">
         <v>253</v>
@@ -23083,15 +23106,15 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D192" s="2">
         <v>139</v>
@@ -23193,15 +23216,15 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D193" s="2">
         <v>908</v>
@@ -23303,15 +23326,15 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D194" s="2">
         <v>311</v>
@@ -23413,15 +23436,15 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D195" s="2">
         <v>545</v>
@@ -23523,15 +23546,15 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D196" s="2">
         <v>354</v>
@@ -23633,15 +23656,15 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D197" s="2">
         <v>139</v>
@@ -23743,15 +23766,15 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D198" s="2">
         <v>578</v>
@@ -23853,15 +23876,15 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D199" s="2">
         <v>719</v>
@@ -23963,15 +23986,15 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D200" s="2">
         <v>342</v>
@@ -24073,15 +24096,15 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D201" s="2">
         <v>430</v>
@@ -24183,15 +24206,15 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D202" s="2">
         <v>470</v>
@@ -24293,15 +24316,15 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D203" s="2">
         <v>201</v>
@@ -24403,15 +24426,15 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D204" s="2">
         <v>161</v>
@@ -24513,15 +24536,15 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D205" s="2">
         <v>357</v>
@@ -24623,15 +24646,15 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D206" s="2">
         <v>663</v>
@@ -24733,15 +24756,15 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D207" s="2">
         <v>403</v>
@@ -24843,15 +24866,15 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D208" s="2">
         <v>429</v>
@@ -24953,15 +24976,15 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D209" s="2">
         <v>272</v>
@@ -25063,15 +25086,15 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D210" s="2">
         <v>890</v>
@@ -25173,15 +25196,15 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D211" s="2">
         <v>461</v>
@@ -25283,15 +25306,15 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D212" s="2">
         <v>1484</v>
@@ -25393,15 +25416,15 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D213" s="2">
         <v>731</v>
@@ -25503,15 +25526,15 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D214" s="2">
         <v>5772</v>
@@ -25613,15 +25636,15 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D215" s="2">
         <v>1359</v>
@@ -25723,15 +25746,15 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D216" s="2">
         <v>1449</v>
@@ -25833,15 +25856,15 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D217" s="2">
         <v>2576</v>
@@ -25943,15 +25966,15 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D218" s="2">
         <v>1001</v>
@@ -26053,15 +26076,15 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D219" s="2">
         <v>1130</v>
@@ -26163,15 +26186,15 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D220" s="2">
         <v>816</v>
@@ -26273,15 +26296,15 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D221" s="2">
         <v>2105</v>
@@ -26383,15 +26406,15 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D222" s="2">
         <v>1060</v>
@@ -26493,15 +26516,15 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D223" s="2">
         <v>1239</v>
@@ -26603,15 +26626,15 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D224" s="2">
         <v>736</v>
@@ -26713,15 +26736,15 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D225" s="2">
         <v>705</v>
@@ -26823,15 +26846,15 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D226" s="2">
         <v>1127</v>
@@ -26933,15 +26956,15 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D227" s="2">
         <v>781</v>
@@ -27043,15 +27066,15 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D228" s="2">
         <v>1662</v>
@@ -27153,15 +27176,15 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D229" s="2">
         <v>1537</v>
@@ -27263,15 +27286,15 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D230" s="2">
         <v>2859</v>
@@ -27373,15 +27396,15 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D231" s="2">
         <v>1537</v>
@@ -27483,15 +27506,15 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D232" s="2">
         <v>748</v>
@@ -27593,15 +27616,15 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D233" s="2">
         <v>1526</v>
@@ -27703,15 +27726,15 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D234" s="2">
         <v>4784</v>
@@ -27813,15 +27836,15 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D235" s="2">
         <v>2503</v>
@@ -27923,15 +27946,15 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D236" s="2">
         <v>1671</v>
@@ -28033,15 +28056,15 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D237" s="2">
         <v>1193</v>
@@ -28143,15 +28166,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D238" s="2">
         <v>886</v>
@@ -28253,15 +28276,15 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D239" s="2">
         <v>824</v>
@@ -28363,15 +28386,15 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D240" s="2">
         <v>2284</v>
@@ -28473,15 +28496,15 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D241" s="2">
         <v>2502</v>
@@ -28583,15 +28606,15 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D242" s="2">
         <v>811</v>
@@ -28693,15 +28716,15 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D243" s="2">
         <v>1476</v>
@@ -28803,15 +28826,15 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D244" s="2">
         <v>6222</v>
@@ -28913,15 +28936,15 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D245" s="2">
         <v>1504</v>
@@ -29023,15 +29046,15 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D246" s="2">
         <v>1706</v>
@@ -29133,15 +29156,15 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D247" s="2">
         <v>1407</v>
@@ -29243,15 +29266,15 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D248" s="2">
         <v>786</v>
@@ -29353,15 +29376,15 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D249" s="2">
         <v>2919</v>
@@ -29463,15 +29486,15 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D250" s="2">
         <v>2383</v>
@@ -29573,15 +29596,15 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D251" s="2">
         <v>427</v>
@@ -29683,15 +29706,15 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D252" s="2">
         <v>551</v>
@@ -29793,15 +29816,15 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D253" s="2">
         <v>1938</v>
@@ -29903,15 +29926,15 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D254" s="2">
         <v>1923</v>

--- a/Data/all_in_one_Categorical_imputed.xlsx
+++ b/Data/all_in_one_Categorical_imputed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA037F-35CD-428F-A619-B1017046CE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA80DA3-D8EE-4F8D-880C-13E462288B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,12 +40,6 @@
     <t>Total_secured_accommodation</t>
   </si>
   <si>
-    <t>Size_of_social_housing_waiting_list_2021</t>
-  </si>
-  <si>
-    <t>2021_Total_Lettings</t>
-  </si>
-  <si>
     <t>Social_Rent_(Starts_on_Site)</t>
   </si>
   <si>
@@ -1656,6 +1650,14 @@
   </si>
   <si>
     <t>Market(Completions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size_of_social_housing_waiting_list_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_Total_Lettings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2098,13 +2100,13 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2125,85 +2127,85 @@
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.2">
@@ -2211,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="2">
         <v>986</v>
@@ -2321,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="2">
         <v>522</v>
@@ -2431,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2">
         <v>2199</v>
@@ -2541,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2">
         <v>711</v>
@@ -2651,10 +2653,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2">
         <v>1796</v>
@@ -2761,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2">
         <v>885</v>
@@ -2871,10 +2873,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2">
         <v>1105</v>
@@ -2981,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2">
         <v>2530</v>
@@ -3091,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" s="2">
         <v>407</v>
@@ -3201,10 +3203,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2">
         <v>1275</v>
@@ -3311,10 +3313,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="2">
         <v>803</v>
@@ -3421,10 +3423,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="2">
         <v>2195</v>
@@ -3531,10 +3533,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D14" s="2">
         <v>2428</v>
@@ -3641,10 +3643,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="2">
         <v>85</v>
@@ -3751,10 +3753,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D16" s="2">
         <v>2768</v>
@@ -3861,10 +3863,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D17" s="2">
         <v>1120</v>
@@ -3971,10 +3973,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D18" s="2">
         <v>898</v>
@@ -4081,10 +4083,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D19" s="2">
         <v>1383</v>
@@ -4191,10 +4193,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" s="2">
         <v>398</v>
@@ -4301,10 +4303,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D21" s="2">
         <v>2769</v>
@@ -4411,10 +4413,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="2">
         <v>897</v>
@@ -4521,10 +4523,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" s="2">
         <v>842</v>
@@ -4631,10 +4633,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D24" s="2">
         <v>1990</v>
@@ -4741,10 +4743,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D25" s="2">
         <v>1051</v>
@@ -4851,10 +4853,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D26" s="2">
         <v>2093</v>
@@ -4961,10 +4963,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D27" s="2">
         <v>1140</v>
@@ -5071,10 +5073,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2">
         <v>1005</v>
@@ -5181,10 +5183,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D29" s="2">
         <v>1444</v>
@@ -5291,10 +5293,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D30" s="2">
         <v>1235</v>
@@ -5401,10 +5403,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D31" s="2">
         <v>713</v>
@@ -5511,10 +5513,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D32" s="2">
         <v>1588</v>
@@ -5621,10 +5623,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D33" s="2">
         <v>740</v>
@@ -5731,10 +5733,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D34" s="2">
         <v>493</v>
@@ -5841,10 +5843,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D35" s="2">
         <v>945</v>
@@ -5951,10 +5953,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D36" s="2">
         <v>467</v>
@@ -6061,10 +6063,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D37" s="2">
         <v>319</v>
@@ -6171,10 +6173,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D38" s="2">
         <v>1881</v>
@@ -6281,10 +6283,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2">
         <v>1986</v>
@@ -6391,10 +6393,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D40" s="2">
         <v>1236</v>
@@ -6501,10 +6503,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D41" s="2">
         <v>700</v>
@@ -6611,10 +6613,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2">
         <v>2643</v>
@@ -6721,10 +6723,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2">
         <v>1280</v>
@@ -6831,10 +6833,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2">
         <v>1799</v>
@@ -6941,10 +6943,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D45" s="2">
         <v>1143</v>
@@ -7051,10 +7053,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2">
         <v>3223</v>
@@ -7161,10 +7163,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D47" s="2">
         <v>1443</v>
@@ -7271,10 +7273,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D48" s="2">
         <v>1077</v>
@@ -7381,10 +7383,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D49" s="2">
         <v>1150</v>
@@ -7491,10 +7493,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D50" s="2">
         <v>665</v>
@@ -7601,10 +7603,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D51" s="2">
         <v>599</v>
@@ -7711,10 +7713,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D52" s="2">
         <v>429</v>
@@ -7821,10 +7823,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D53" s="2">
         <v>928</v>
@@ -7931,10 +7933,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D54" s="2">
         <v>420</v>
@@ -8041,10 +8043,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D55" s="2">
         <v>352</v>
@@ -8151,10 +8153,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D56" s="2">
         <v>283</v>
@@ -8261,10 +8263,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D57" s="2">
         <v>121</v>
@@ -8371,10 +8373,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D58" s="2">
         <v>397</v>
@@ -8481,10 +8483,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2">
         <v>397</v>
@@ -8591,10 +8593,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D60" s="2">
         <v>98</v>
@@ -8701,10 +8703,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D61" s="2">
         <v>568</v>
@@ -8811,10 +8813,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D62" s="2">
         <v>241</v>
@@ -8921,10 +8923,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2">
         <v>293</v>
@@ -9031,10 +9033,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D64" s="2">
         <v>447</v>
@@ -9141,10 +9143,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D65" s="2">
         <v>235</v>
@@ -9251,10 +9253,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D66" s="2">
         <v>279</v>
@@ -9361,10 +9363,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D67" s="2">
         <v>573</v>
@@ -9471,10 +9473,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D68" s="2">
         <v>325</v>
@@ -9581,10 +9583,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D69" s="2">
         <v>1017</v>
@@ -9691,10 +9693,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D70" s="2">
         <v>398</v>
@@ -9801,10 +9803,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D71" s="2">
         <v>826</v>
@@ -9911,10 +9913,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D72" s="2">
         <v>426</v>
@@ -10021,10 +10023,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2">
         <v>257</v>
@@ -10131,10 +10133,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D74" s="2">
         <v>929</v>
@@ -10241,10 +10243,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D75" s="2">
         <v>474</v>
@@ -10351,10 +10353,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D76" s="2">
         <v>652</v>
@@ -10461,10 +10463,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D77" s="2">
         <v>450</v>
@@ -10571,10 +10573,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D78" s="2">
         <v>799</v>
@@ -10681,10 +10683,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D79" s="2">
         <v>738</v>
@@ -10791,10 +10793,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" s="2">
         <v>381</v>
@@ -10901,10 +10903,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D81" s="2">
         <v>288</v>
@@ -11011,10 +11013,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D82" s="2">
         <v>172</v>
@@ -11121,10 +11123,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D83" s="2">
         <v>208</v>
@@ -11231,10 +11233,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D84" s="2">
         <v>708</v>
@@ -11341,10 +11343,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D85" s="2">
         <v>148</v>
@@ -11451,10 +11453,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D86" s="2">
         <v>518</v>
@@ -11561,10 +11563,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D87" s="2">
         <v>219</v>
@@ -11671,10 +11673,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D88" s="2">
         <v>328</v>
@@ -11781,10 +11783,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D89" s="2">
         <v>1223</v>
@@ -11891,10 +11893,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D90" s="2">
         <v>303</v>
@@ -12001,10 +12003,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D91" s="2">
         <v>387</v>
@@ -12111,10 +12113,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D92" s="2">
         <v>288</v>
@@ -12221,10 +12223,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D93" s="2">
         <v>277</v>
@@ -12331,10 +12333,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D94" s="2">
         <v>357</v>
@@ -12441,10 +12443,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D95" s="2">
         <v>418</v>
@@ -12551,10 +12553,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D96" s="2">
         <v>99</v>
@@ -12661,10 +12663,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D97" s="2">
         <v>436</v>
@@ -12771,10 +12773,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D98" s="2">
         <v>783</v>
@@ -12881,10 +12883,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D99" s="2">
         <v>475</v>
@@ -12991,10 +12993,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D100" s="2">
         <v>478</v>
@@ -13101,10 +13103,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D101" s="2">
         <v>288</v>
@@ -13211,10 +13213,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D102" s="2">
         <v>680</v>
@@ -13321,10 +13323,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D103" s="2">
         <v>840</v>
@@ -13431,10 +13433,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D104" s="2">
         <v>275</v>
@@ -13541,10 +13543,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D105" s="2">
         <v>614</v>
@@ -13651,10 +13653,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D106" s="2">
         <v>348</v>
@@ -13761,10 +13763,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D107" s="2">
         <v>314</v>
@@ -13871,10 +13873,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D108" s="2">
         <v>562</v>
@@ -13981,10 +13983,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D109" s="2">
         <v>778</v>
@@ -14091,10 +14093,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D110" s="2">
         <v>461</v>
@@ -14201,10 +14203,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D111" s="2">
         <v>621</v>
@@ -14311,10 +14313,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D112" s="2">
         <v>871</v>
@@ -14421,10 +14423,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D113" s="2">
         <v>392</v>
@@ -14531,10 +14533,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D114" s="2">
         <v>401</v>
@@ -14641,10 +14643,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D115" s="2">
         <v>821</v>
@@ -14751,10 +14753,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D116" s="2">
         <v>1235</v>
@@ -14861,10 +14863,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D117" s="2">
         <v>305</v>
@@ -14971,10 +14973,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D118" s="2">
         <v>516</v>
@@ -15081,10 +15083,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D119" s="2">
         <v>820</v>
@@ -15191,10 +15193,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D120" s="2">
         <v>163</v>
@@ -15301,10 +15303,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D121" s="2">
         <v>190</v>
@@ -15411,10 +15413,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D122" s="2">
         <v>213</v>
@@ -15521,10 +15523,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D123" s="2">
         <v>57</v>
@@ -15631,10 +15633,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D124" s="2">
         <v>362</v>
@@ -15741,10 +15743,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D125" s="2">
         <v>581</v>
@@ -15851,10 +15853,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D126" s="2">
         <v>138</v>
@@ -15961,10 +15963,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D127" s="2">
         <v>507</v>
@@ -16071,10 +16073,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D128" s="2">
         <v>354</v>
@@ -16181,10 +16183,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D129" s="2">
         <v>205</v>
@@ -16291,10 +16293,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D130" s="2">
         <v>380</v>
@@ -16401,10 +16403,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D131" s="2">
         <v>288</v>
@@ -16511,10 +16513,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D132" s="2">
         <v>152</v>
@@ -16621,10 +16623,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D133" s="2">
         <v>198</v>
@@ -16731,10 +16733,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D134" s="2">
         <v>621</v>
@@ -16841,10 +16843,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D135" s="2">
         <v>415</v>
@@ -16951,10 +16953,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D136" s="2">
         <v>304</v>
@@ -17061,10 +17063,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D137" s="2">
         <v>587</v>
@@ -17171,10 +17173,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D138" s="2">
         <v>500</v>
@@ -17281,10 +17283,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D139" s="2">
         <v>586</v>
@@ -17391,10 +17393,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D140" s="2">
         <v>111</v>
@@ -17501,10 +17503,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D141" s="2">
         <v>703</v>
@@ -17611,10 +17613,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D142" s="2">
         <v>310</v>
@@ -17721,10 +17723,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D143" s="2">
         <v>279</v>
@@ -17831,10 +17833,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D144" s="2">
         <v>708</v>
@@ -17941,10 +17943,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D145" s="2">
         <v>183</v>
@@ -18051,10 +18053,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D146" s="2">
         <v>289</v>
@@ -18161,10 +18163,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D147" s="2">
         <v>318</v>
@@ -18271,10 +18273,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D148" s="2">
         <v>185</v>
@@ -18381,10 +18383,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D149" s="2">
         <v>447</v>
@@ -18491,10 +18493,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D150" s="2">
         <v>1511</v>
@@ -18601,10 +18603,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D151" s="2">
         <v>216</v>
@@ -18711,10 +18713,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D152" s="2">
         <v>348</v>
@@ -18821,10 +18823,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D153" s="2">
         <v>85</v>
@@ -18931,10 +18933,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D154" s="2">
         <v>215</v>
@@ -19041,10 +19043,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D155" s="2">
         <v>648</v>
@@ -19151,10 +19153,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D156" s="2">
         <v>227</v>
@@ -19261,10 +19263,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D157" s="2">
         <v>348</v>
@@ -19371,10 +19373,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D158" s="2">
         <v>230</v>
@@ -19481,10 +19483,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D159" s="2">
         <v>218</v>
@@ -19591,10 +19593,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D160" s="2">
         <v>244</v>
@@ -19701,10 +19703,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D161" s="2">
         <v>193</v>
@@ -19811,10 +19813,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D162" s="2">
         <v>198</v>
@@ -19921,10 +19923,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D163" s="2">
         <v>313</v>
@@ -20031,10 +20033,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D164" s="2">
         <v>556</v>
@@ -20141,10 +20143,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D165" s="2">
         <v>364</v>
@@ -20251,10 +20253,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D166" s="2">
         <v>394</v>
@@ -20361,10 +20363,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D167" s="2">
         <v>256</v>
@@ -20471,10 +20473,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D168" s="2">
         <v>606</v>
@@ -20581,10 +20583,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D169" s="2">
         <v>709</v>
@@ -20691,10 +20693,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D170" s="2">
         <v>595</v>
@@ -20801,10 +20803,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D171" s="2">
         <v>178</v>
@@ -20911,10 +20913,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D172" s="2">
         <v>271</v>
@@ -21021,10 +21023,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D173" s="2">
         <v>261</v>
@@ -21131,10 +21133,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D174" s="2">
         <v>389</v>
@@ -21241,10 +21243,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D175" s="2">
         <v>76</v>
@@ -21351,10 +21353,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D176" s="2">
         <v>204</v>
@@ -21461,10 +21463,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D177" s="2">
         <v>240</v>
@@ -21571,10 +21573,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D178" s="2">
         <v>320</v>
@@ -21681,10 +21683,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D179" s="2">
         <v>317</v>
@@ -21791,10 +21793,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D180" s="2">
         <v>1827</v>
@@ -21901,10 +21903,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D181" s="2">
         <v>258</v>
@@ -22011,10 +22013,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D182" s="2">
         <v>310</v>
@@ -22121,10 +22123,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D183" s="2">
         <v>222</v>
@@ -22231,10 +22233,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D184" s="2">
         <v>378</v>
@@ -22341,10 +22343,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D185" s="2">
         <v>268</v>
@@ -22451,10 +22453,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D186" s="2">
         <v>489</v>
@@ -22561,10 +22563,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D187" s="2">
         <v>224</v>
@@ -22671,10 +22673,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D188" s="2">
         <v>382</v>
@@ -22781,10 +22783,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D189" s="2">
         <v>146</v>
@@ -22891,10 +22893,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D190" s="2">
         <v>244</v>
@@ -23001,10 +23003,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D191" s="2">
         <v>253</v>
@@ -23111,10 +23113,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D192" s="2">
         <v>139</v>
@@ -23221,10 +23223,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D193" s="2">
         <v>908</v>
@@ -23331,10 +23333,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D194" s="2">
         <v>311</v>
@@ -23441,10 +23443,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2">
         <v>545</v>
@@ -23551,10 +23553,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D196" s="2">
         <v>354</v>
@@ -23661,10 +23663,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D197" s="2">
         <v>139</v>
@@ -23771,10 +23773,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D198" s="2">
         <v>578</v>
@@ -23881,10 +23883,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D199" s="2">
         <v>719</v>
@@ -23991,10 +23993,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D200" s="2">
         <v>342</v>
@@ -24101,10 +24103,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D201" s="2">
         <v>430</v>
@@ -24211,10 +24213,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D202" s="2">
         <v>470</v>
@@ -24321,10 +24323,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D203" s="2">
         <v>201</v>
@@ -24431,10 +24433,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D204" s="2">
         <v>161</v>
@@ -24541,10 +24543,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D205" s="2">
         <v>357</v>
@@ -24651,10 +24653,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D206" s="2">
         <v>663</v>
@@ -24761,10 +24763,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D207" s="2">
         <v>403</v>
@@ -24871,10 +24873,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D208" s="2">
         <v>429</v>
@@ -24981,10 +24983,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D209" s="2">
         <v>272</v>
@@ -25091,10 +25093,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D210" s="2">
         <v>890</v>
@@ -25201,10 +25203,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D211" s="2">
         <v>461</v>
@@ -25311,10 +25313,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D212" s="2">
         <v>1484</v>
@@ -25421,10 +25423,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D213" s="2">
         <v>731</v>
@@ -25531,10 +25533,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D214" s="2">
         <v>5772</v>
@@ -25641,10 +25643,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D215" s="2">
         <v>1359</v>
@@ -25751,10 +25753,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D216" s="2">
         <v>1449</v>
@@ -25861,10 +25863,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D217" s="2">
         <v>2576</v>
@@ -25971,10 +25973,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D218" s="2">
         <v>1001</v>
@@ -26081,10 +26083,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D219" s="2">
         <v>1130</v>
@@ -26191,10 +26193,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D220" s="2">
         <v>816</v>
@@ -26301,10 +26303,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D221" s="2">
         <v>2105</v>
@@ -26411,10 +26413,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D222" s="2">
         <v>1060</v>
@@ -26521,10 +26523,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D223" s="2">
         <v>1239</v>
@@ -26631,10 +26633,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D224" s="2">
         <v>736</v>
@@ -26741,10 +26743,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D225" s="2">
         <v>705</v>
@@ -26851,10 +26853,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D226" s="2">
         <v>1127</v>
@@ -26961,10 +26963,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D227" s="2">
         <v>781</v>
@@ -27071,10 +27073,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D228" s="2">
         <v>1662</v>
@@ -27181,10 +27183,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D229" s="2">
         <v>1537</v>
@@ -27291,10 +27293,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D230" s="2">
         <v>2859</v>
@@ -27401,10 +27403,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D231" s="2">
         <v>1537</v>
@@ -27511,10 +27513,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D232" s="2">
         <v>748</v>
@@ -27621,10 +27623,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D233" s="2">
         <v>1526</v>
@@ -27731,10 +27733,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D234" s="2">
         <v>4784</v>
@@ -27841,10 +27843,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D235" s="2">
         <v>2503</v>
@@ -27951,10 +27953,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D236" s="2">
         <v>1671</v>
@@ -28061,10 +28063,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D237" s="2">
         <v>1193</v>
@@ -28171,10 +28173,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D238" s="2">
         <v>886</v>
@@ -28281,10 +28283,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D239" s="2">
         <v>824</v>
@@ -28391,10 +28393,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D240" s="2">
         <v>2284</v>
@@ -28501,10 +28503,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D241" s="2">
         <v>2502</v>
@@ -28611,10 +28613,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D242" s="2">
         <v>811</v>
@@ -28721,10 +28723,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D243" s="2">
         <v>1476</v>
@@ -28831,10 +28833,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D244" s="2">
         <v>6222</v>
@@ -28941,10 +28943,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D245" s="2">
         <v>1504</v>
@@ -29051,10 +29053,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D246" s="2">
         <v>1706</v>
@@ -29161,10 +29163,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D247" s="2">
         <v>1407</v>
@@ -29271,10 +29273,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D248" s="2">
         <v>786</v>
@@ -29381,10 +29383,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D249" s="2">
         <v>2919</v>
@@ -29491,10 +29493,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D250" s="2">
         <v>2383</v>
@@ -29601,10 +29603,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D251" s="2">
         <v>427</v>
@@ -29711,10 +29713,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D252" s="2">
         <v>551</v>
@@ -29821,10 +29823,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D253" s="2">
         <v>1938</v>
@@ -29931,10 +29933,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D254" s="2">
         <v>1923</v>
